--- a/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/COL_AdminBoundaries_TabularData.xlsx
+++ b/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/COL_AdminBoundaries_TabularData.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin0" sheetId="1" r:id="rId1"/>
-    <sheet name="Admin1" sheetId="2" r:id="rId2"/>
-    <sheet name="Admin2" sheetId="3" r:id="rId3"/>
+    <sheet name="ADM0" sheetId="1" r:id="rId1"/>
+    <sheet name="ADM1" sheetId="2" r:id="rId2"/>
+    <sheet name="ADM2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -18,31 +18,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7300" uniqueCount="2603">
   <si>
-    <t>admin0Name_es</t>
-  </si>
-  <si>
-    <t>admin0Pcode</t>
-  </si>
-  <si>
-    <t>admin0RefName</t>
-  </si>
-  <si>
-    <t>admin0AltName1_es</t>
-  </si>
-  <si>
-    <t>admin0AltName2_es</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>validOn</t>
-  </si>
-  <si>
-    <t>validTo</t>
-  </si>
-  <si>
-    <t>Area_SqKm</t>
+    <t>ADM0_ES</t>
+  </si>
+  <si>
+    <t>ADM0_PCODE</t>
+  </si>
+  <si>
+    <t>ADM0_REF</t>
+  </si>
+  <si>
+    <t>ADM0ALT1_ES</t>
+  </si>
+  <si>
+    <t>ADM0ALT2_ES</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>VALIDON</t>
+  </si>
+  <si>
+    <t>VALIDTO</t>
+  </si>
+  <si>
+    <t>AREA_SQKM</t>
   </si>
   <si>
     <t>Colombia</t>
@@ -51,19 +51,19 @@
     <t>CO</t>
   </si>
   <si>
-    <t>admin1Name_es</t>
-  </si>
-  <si>
-    <t>admin1Pcode</t>
-  </si>
-  <si>
-    <t>admin1RefName</t>
-  </si>
-  <si>
-    <t>admin1AltName1_es</t>
-  </si>
-  <si>
-    <t>admin1AltName2_es</t>
+    <t>ADM1_ES</t>
+  </si>
+  <si>
+    <t>ADM1_PCODE</t>
+  </si>
+  <si>
+    <t>ADM1_REF</t>
+  </si>
+  <si>
+    <t>ADM1ALT1_ES</t>
+  </si>
+  <si>
+    <t>ADM1ALT2_ES</t>
   </si>
   <si>
     <t>Amazonas</t>
@@ -297,19 +297,19 @@
     <t>Vaupes</t>
   </si>
   <si>
-    <t>admin2Name_es</t>
-  </si>
-  <si>
-    <t>admin2Pcode</t>
-  </si>
-  <si>
-    <t>admin2RefName</t>
-  </si>
-  <si>
-    <t>admin2AltName1_es</t>
-  </si>
-  <si>
-    <t>admin2AltName2_es</t>
+    <t>ADM2_ES</t>
+  </si>
+  <si>
+    <t>ADM2_PCODE</t>
+  </si>
+  <si>
+    <t>ADM2_REF</t>
+  </si>
+  <si>
+    <t>ADM2ALT1_ES</t>
+  </si>
+  <si>
+    <t>ADM2ALT2_ES</t>
   </si>
   <si>
     <t>Abejorral</t>
@@ -8194,15 +8194,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -8265,17 +8256,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="56.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" customWidth="1"/>
-    <col min="4" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -9119,18 +9099,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="56.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
